--- a/biology/Zoologie/William_Edward_Duellman/William_Edward_Duellman.xlsx
+++ b/biology/Zoologie/William_Edward_Duellman/William_Edward_Duellman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Edward Duellman, né le 6 septembre 1930 et mort le 25 février 2022[1], est un zoologiste, spécialiste des amphibiens.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Edward Duellman, né le 6 septembre 1930 et mort le 25 février 2022, est un zoologiste, spécialiste des amphibiens.
 Diplômé de l'Université du Michigan en 1956, il est Curator Emeritus de la Division of Herpetology à l'Université du Kansas.
 Il a notamment décrit dans les années 1960-1980 avec John Douglas Lynch (1942-) de nombreuses espèces dans le genre Eleutherodactylus maintenant transférées dans Pristimantis. Il est le mari de la zoologiste Linda Trueb (1942-).
 </t>
@@ -513,7 +525,9 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Phyllodactylus duellmani Dixon, 1960
 Anolis duellmani Fitch &amp; Henderson, 1973
@@ -552,7 +566,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agalychnis annae (Duellman, 1963)
